--- a/public/export/COVID AMP data dictionary.xlsx
+++ b/public/export/COVID AMP data dictionary.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Documents/GitHub/covid-npi-policy/public/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CB7D2-60D4-054B-869A-11CC6E048CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938226F3-3F80-DB43-86E6-C3D4CB80F6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="460" windowWidth="23380" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover page" sheetId="7" r:id="rId1"/>
     <sheet name="Policy database definitions" sheetId="3" r:id="rId2"/>
     <sheet name="Policy database glossary" sheetId="6" r:id="rId3"/>
+    <sheet name="Plan database definitions" sheetId="8" r:id="rId4"/>
+    <sheet name="Plan database glossary" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="537">
   <si>
     <t>Unique ID</t>
   </si>
@@ -1124,9 +1126,6 @@
     <t>https://www.who.int/activities/managing-health-risks-during-mass-gatherings</t>
   </si>
   <si>
-    <t>Face covering requirement</t>
-  </si>
-  <si>
     <t>Contact Tracing/Testing</t>
   </si>
   <si>
@@ -1203,9 +1202,6 @@
   </si>
   <si>
     <t>Contact tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A policy or plan that implements a set of procedures designed to determine the identification of individuals who may have come into contact with an infected person </t>
   </si>
   <si>
     <t>Other</t>
@@ -1509,9 +1505,6 @@
     <t>The type of law or policy that is enacted (e.g., declaration vs. order)</t>
   </si>
   <si>
-    <t xml:space="preserve">The PDF attachment file of the corresponding law or policy </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1562,79 +1555,6 @@
     <t>The name of the local area (e.g., city, county) affected by the policy/law. This value is blank if the affected location is the same as the authorizing location (e.g., a city authorizing policy that only affects that city).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-This spreadsheet is an associated document of the COVID-AMP policy data base and is prepared by Georgetown University, NTI and Talus Analytics.
-The goal of the COVID-AMP site is to provide access to a comprehensive list of policies and plans implemented in response to the COVID-19 pandemic. The following document defines each of the data elements included in the policy data base, as well a glossary of standardized data definitions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Goal: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The COVID-AMP site provides access to a comprehensive list of annotated policies, plans and contact tracing initiatives implemented in response to the COVID-19 pandemic. Rather than a database of just the policies themselves, the COVID-AMP policy database contains a comprehensive set of metadata about the governing authority, describing the type of policy measure, detailing the policies intentions and analyzing the legal authority under which the policy is enacted. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Data collection: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The following policies have been curated through an exhaustive search of relevant news articles, policy announcements and government websites by a team of policy researchers at Georgetown University. Policies for each state and county are collected on an ongoing basis, and updates are made in near real time. For each policy identified, a policy researcher captures the type of measure that was enacted, down to the level of detail of the population, location impacted and date implemented. Additionally, a legal scholar reviewed each policy and researched the relevant legal documents that allowed the authority to implement the policy. This process also includes capturing digital copies of the announcement, policy and legal precedent for further reference by researchers.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Quick start guide: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The Policy database has detailed information about policies or laws that have been enacted by a body that has legal/governing authority (e.g., a country, a state or an organization of countries such as WHO). This database is intended for use by a wide range of audiences and is organized in a way that can be filtered or searched to narrow down to a specific set of relevant policies. Though the filters are flexible, the two general use cases are finding policies relevant to a specific location or finding policies relevant to a specific policy topic.
-     To find all policies enacted in a given location, select the relevant ‘Level of government’ and subsequent cascading filters down to the level of granularity of interest (i.e. local area). Without using the additional policy category filters, it is possible to see all measures enacted, the date the policies were implemented and ended (when relevant), as well as all other pertinent information.
-     To search for a policy based on a specific topic, such as all stay at home orders, the policy specific filters are in place to narrow down to any given topic of interest. The ‘Policy category’ filter broadly organizes around the intention of the policy: if it is aimed at public health measures such as social distancing, or if it is an economic or regulatory measure. The specific policy categories are enumerated in the following data dictionary, and all possible categories are defined in the glossary. The 'Relaxing or restricting' filter applies most directly to the social distancing policy category. It distinguishes whether a policy was introduced to decrease the overall interactions and activity among individuals, ‘Restricting’, or to increase activity and interactions towards pre-outbreak levels, ‘Relaxing’. As an example, to find all policies related to reopening private business, select Relaxing or Restricting: ‘Relaxing’, Policy category: ‘Social distancing’, Policy sub-category: ‘Mandated private sector closures’. 
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">A unique identifier associated with data in each row. The data is captured so that each row represents a single policy, per date issued, per authority and per area affected. </t>
   </si>
   <si>
@@ -1697,16 +1617,7 @@
     <t>The actual PDF file of the source documentation for the relevant authority</t>
   </si>
   <si>
-    <t>A link to the website from which the policy data were gathered. This link may be a news report or press announcement if data were gathered from that source and not from the source policy document.</t>
-  </si>
-  <si>
     <t>The file name of the PDF file of the corresponding policy announcement</t>
-  </si>
-  <si>
-    <t>Source documentation for the underlying law or policy</t>
-  </si>
-  <si>
-    <t>The file name of the PDF file of the corresponding law or policy</t>
   </si>
   <si>
     <t>A restriction of the movement of individuals who may have been exposed to a disease in order to prevent disease transmission</t>
@@ -1783,31 +1694,6 @@
   </si>
   <si>
     <t xml:space="preserve">University or higher education constitutes any postsecondary education </t>
-  </si>
-  <si>
-    <r>
-      <t>Non</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>essential business (inclusive)</t>
-    </r>
   </si>
   <si>
     <t>Businesses with the primary purposes of entertainment, recreation, and retail, but the exact definition may vary by jurisdiction. This population is selected when a policy encompasses all non-essential business with no limitations.</t>
@@ -2193,15 +2079,1075 @@
   </si>
   <si>
     <t xml:space="preserve">Policy Number is a numeric identifier given to each policy release, including capturing co-released policies, where applicable. A single policy release may contain multiple directives. For example, an executive order can include a stay at home order for individuals and mandate non-essential business closures. These policy elements will share a single Policy Number since they are part of a larger order/law/legislation, but they will be captured in separate lines with different Unique IDs. </t>
+  </si>
+  <si>
+    <t>A link to the website from which the policy was announced. This link may be a news report or press announcement if data were gathered from that source and not from the source policy document.</t>
+  </si>
+  <si>
+    <t>Source documentation for the underlying policy or law.</t>
+  </si>
+  <si>
+    <t>The file name of the PDF file of the corresponding policy or law.</t>
+  </si>
+  <si>
+    <t>The PDF attachment file of the corresponding policy or law</t>
+  </si>
+  <si>
+    <t>Data dictionary: definitions of each category/column available in the COVID-AMP Plan database</t>
+  </si>
+  <si>
+    <t>Any unique integer value</t>
+  </si>
+  <si>
+    <t>Organization name</t>
+  </si>
+  <si>
+    <t>Organization type</t>
+  </si>
+  <si>
+    <t>Residential?</t>
+  </si>
+  <si>
+    <t>Plan name</t>
+  </si>
+  <si>
+    <t>Michigan: MI Safe Start</t>
+  </si>
+  <si>
+    <t>Primary location</t>
+  </si>
+  <si>
+    <t>The primary location of the organization. For example, a plan from Amazon would list their headquarters: Seattle, WA.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State/province</t>
+  </si>
+  <si>
+    <t>The name of the sub-national area (e.g., state, province, district) corresponding to the country or agency which issued the plan. This value is "NA" if the plan was issued at the country level.</t>
+  </si>
+  <si>
+    <t>Local area (e.g., county, city)</t>
+  </si>
+  <si>
+    <t>The name of the local area (e.g., city, county) corresponding to the country or agency which issued the plan. This value is "NA" if the plan was issued at the country or state/province level.</t>
+  </si>
+  <si>
+    <t>Plan author has authority over org?</t>
+  </si>
+  <si>
+    <t>Plan description</t>
+  </si>
+  <si>
+    <t>Plan announcement date</t>
+  </si>
+  <si>
+    <t>The date on which the plan was initially announced and/or issued</t>
+  </si>
+  <si>
+    <t>Total number of phases</t>
+  </si>
+  <si>
+    <t>Essential business plan</t>
+  </si>
+  <si>
+    <t>Private sector plan</t>
+  </si>
+  <si>
+    <t>School plan</t>
+  </si>
+  <si>
+    <t>Social distancing requirements</t>
+  </si>
+  <si>
+    <t>Hospital and public health support</t>
+  </si>
+  <si>
+    <t>Public facilities</t>
+  </si>
+  <si>
+    <t>Additional safety measures</t>
+  </si>
+  <si>
+    <t>Plan link</t>
+  </si>
+  <si>
+    <t>Plan PDF</t>
+  </si>
+  <si>
+    <t>The PDF attachment file of the corresponding plan</t>
+  </si>
+  <si>
+    <t>Uploaded PDF with filename format: State_Type of Document_Summary_Date Month Year or State_Locality_Type of Document_Summary_Date Month Year)</t>
+  </si>
+  <si>
+    <t>Plan announcement link</t>
+  </si>
+  <si>
+    <t>Plan announcement PDF</t>
+  </si>
+  <si>
+    <t>The plan PDF</t>
+  </si>
+  <si>
+    <t>Link to policy ID</t>
+  </si>
+  <si>
+    <t>Blank, or any unique policy number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One of:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+For-profit
+Government
+Higher Education
+Non-profit
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">One of:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes
+No
+Mixed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any 3-digit alpha-3 ISO code
+https://www.iban.com/country-codes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.unece.org/cefact/codesfortrade/codes_index.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any city, county, or other local area name, or NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">any state, province, or other intermediate area name, or NA
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">One of:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes
+Mixed
+No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Date: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format mm/dd/yyyy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Data fields describing the definitions related to the contents of the plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Plan documentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Information on source documents, links and PDFs associated with the plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the most descriptive location of where the plan takes place
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Ithaca, NY</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ithaca </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Location</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Data fields describing information on who issued the plan</t>
+    </r>
+  </si>
+  <si>
+    <t>Data is organized into 3 main categories: location, plan details and plan documentation</t>
+  </si>
+  <si>
+    <t>Database glossary: standardized data definitions of all available selections in the COVID-AMP Plan database</t>
+  </si>
+  <si>
+    <t>Business/Facility options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancing measures
+</t>
+  </si>
+  <si>
+    <t>Personal protection equipment requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry point screening  </t>
+  </si>
+  <si>
+    <t>Capacity limitations</t>
+  </si>
+  <si>
+    <t>Active sick leave policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout and/or ventilation changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequent cleaning and disinfection </t>
+  </si>
+  <si>
+    <t>Testing capacity requirements</t>
+  </si>
+  <si>
+    <t>Treat all patients without crisis care</t>
+  </si>
+  <si>
+    <t>PPE and critical medical equipment supplies</t>
+  </si>
+  <si>
+    <t>Testing program for healthcare workers</t>
+  </si>
+  <si>
+    <t>Robust testing program in place for at-risk healthcare workers. Every public health agency has a robust testing program in place for public health workers.</t>
+  </si>
+  <si>
+    <t>Establish screening and testing sites for symptomatic individuals</t>
+  </si>
+  <si>
+    <t>Ability to test Syndromic/ILI-indicated persons for COVID</t>
+  </si>
+  <si>
+    <t>Establish sentinel surveillance sites for asymptomatic cases</t>
+  </si>
+  <si>
+    <t>ICU surge capacity</t>
+  </si>
+  <si>
+    <t>COVID-19 specific capacity</t>
+  </si>
+  <si>
+    <t>Hospital/Public health options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing/surveillance strategy 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing considerations </t>
+  </si>
+  <si>
+    <t>Quarantine/isolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptom monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific programs/strategies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation considerations </t>
+  </si>
+  <si>
+    <t>Calendar/schedule modifications</t>
+  </si>
+  <si>
+    <t>Mandatory influenza vaccinations</t>
+  </si>
+  <si>
+    <t>https://www.osha.gov/Publications/OSHA3990.pdf</t>
+  </si>
+  <si>
+    <t>Actively encourage sick employees to stay home and ensure that sick leave policies are flexible and consistent with public health guidance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Additional safety measures</t>
+    </r>
+  </si>
+  <si>
+    <t>Essential businesses;
+Private sectors; 
+Schools;
+Public facilities</t>
+  </si>
+  <si>
+    <t>Policy relaxing or restricting</t>
+  </si>
+  <si>
+    <t>Broad policy categories that relate to intention of the policy.
+Restricting: a policy or plan where the intention is to reduce overall contact and interaction among individuals in both public and private settings
+Relaxing: a policy or plan that aims to ease previously imposed restrictions and allow more public movement and/or business related activity
+Contact tracing: All policies related to contact tracing
+Other: All other policies or plans that do not relate to changing the amount of interaction among individuals and/or restricting movement, and do not fall under contact tracing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One of:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Restricting
+Relaxing
+Other</t>
+    </r>
+  </si>
+  <si>
+    <t>Parent policy number</t>
+  </si>
+  <si>
+    <t>Parent policy relationship</t>
+  </si>
+  <si>
+    <t>For local policies (e.g. county level) that have a relationship (follow from or directly counteract) to a higher level state policy, these is the applicable policy number(s). For example, the state of Maryland moved to a Safer at home, but Prince George's county is in a Stay at home</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Numeric: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blank or any unique policy number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Blank, or any unique policy number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>One of:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Inherited
+More restrictive
+Less restrictive
+Addendum
+Exception</t>
+    </r>
+  </si>
+  <si>
+    <t>The relationship associated with the 'Related policy number'. The goal is to capture if the current policy is fundamentally changing the intent of the parent policy, and if so, which direction. If it is not changing the policy, but adding/subtracting certain elements that is also an option</t>
+  </si>
+  <si>
+    <t>Additional notes for parent/child relationship</t>
+  </si>
+  <si>
+    <t>Any addition, relevant notes</t>
+  </si>
+  <si>
+    <t>Face covering</t>
+  </si>
+  <si>
+    <t>Non essential business (inclusive)</t>
+  </si>
+  <si>
+    <t>Farming/Agriculture/Food processing</t>
+  </si>
+  <si>
+    <t>Businesses or workers working in farming, food processing or general agriculture</t>
+  </si>
+  <si>
+    <t>Domestic travel restrictions</t>
+  </si>
+  <si>
+    <t>Includes both intra and interstate  by air, rail, car, and/or public transit</t>
+  </si>
+  <si>
+    <t>A unique identifier associated with the data in each row. The data is captured so that each row represents a single plan.</t>
+  </si>
+  <si>
+    <t>The complete title of the plan</t>
+  </si>
+  <si>
+    <t>Specific social distancing measures or guidelines included in the plan</t>
+  </si>
+  <si>
+    <t>The PDF file of the corresponding plan announcement</t>
+  </si>
+  <si>
+    <t>A unique identifier that corresponds to any policy or policies in the policy database that reference this plan</t>
+  </si>
+  <si>
+    <t>A link to the source of the plan data. This link may be a news report or press announcement if data were collected from that source and not from the plan document itself.</t>
+  </si>
+  <si>
+    <t>The type of organization implementing the plan</t>
+  </si>
+  <si>
+    <r>
+      <t>Name of the organization (or governing body) that issued the plan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If the plan is issued by a government, the name of the entity who issued the plan (e.g., the Office of the Governor) is listed.</t>
+    </r>
+  </si>
+  <si>
+    <t>The data category refers to selections in the plan database definitions of six of the columns. These include Essential business plan, Private sector plan
+School plan, Public facilities, Hospital and public health support, and Additional safety measures</t>
+  </si>
+  <si>
+    <t>Hospitals can care for all patients without using crisis standards of care.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>This spreadsheet is an associated document of the COVID-AMP policy data base and is prepared by Georgetown University, NTI and Talus Analytics.
+The goal of the COVID-AMP site is to provide access to a comprehensive list of policies and plans implemented in response to the COVID-19 pandemic. The following document includes definitions of each of the data elements included in the policy and plan databases and a glossary of standardized data definitions for each database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Goal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>The COVID-AMP site provides access to a comprehensive list of annotated policies, plans and contact tracing initiatives implemented in response to the COVID-19 pandemic. In addition to the policies themselves, the COVID-AMP policy database contains a comprehensive set of metadata describing the governing authority, the type of policy measure, the policy's intentions, and an analysis of the legal authority under which the policy is enacted.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Data collection: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>The following policies have been curated through an exhaustive search of relevant news articles, policy announcements, and government websites by a team of policy researchers at Georgetown University. Policies for each state and county are collected on an ongoing basis, and updates are made in near real time. For each policy identified, a policy researcher captures the type of measure that was enacted, down to the population affected, location impacted and date implemented. Additionally, a legal scholar has reviewed each policy and researched the relevant legal documents that allowed the authority to implement the policy. This process also includes capturing digital copies of the announcement, policy and legal precedent for further reference by researchers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Quick start guide: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">The policy database has detailed information about the policies or laws that have been enacted by a body that has legal/governing authority (e.g., a country, a state, or an organization of countries such as WHO). This database is intended for use by a wide range of audiences and is organized in such a way that it can be filtered or searched to find a specific set of relevant policies. Though the filters are flexible, the two general use cases are finding policies relevant to a specific location or finding policies relevant to a specific policy topic.
+     To find all policies enacted in a given location, select the relevant ‘Level of government’ and subsequent cascading filters down to the granularity level of interest (e.g., local area). Without using the additional policy category filters, it is possible to see all measures enacted, the date the policies were implemented and ended (when relevant), and all other pertinent information.
+      To search for a policy based on a specific topic, such as all stay at home orders, the policy specific filters are in place to narrow down the set of policies to any given topic of interest. The ‘Policy category’ filter broadly organizes around the intention of the policy: if it is aimed at public health measures such as social distancing, or if it is an economic or regulatory measure. The specific policy categories are enumerated in the following data dictionary, and all possible categories are defined in the glossary. The 'Relaxing or restricting' filter applies most directly to the social distancing policy category. It distinguishes whether a policy was introduced to decrease the overall interactions and activity among individuals, ‘Restricting’, or to increase activity and interactions towards pre-outbreak levels, ‘Relaxing’. As an example, to find all policies related to reopening private business, select Relaxing or Restricting: ‘Relaxing’, Policy category: ‘Social distancing’, Policy sub-category: ‘Mandated private sector closures’.  
+     The Plan database are documents issued by a government, non-profit, for-profit, or higher education institution that provide recommended actions or guidelines but do not necessarily have legal basis or authority. Plans are recorded and coded using separate metadata since the nature of these documents is different from that of policies and because plans, as included in AMP, do not have a requirement for being government-issued and or backed by legal authority or precedent. In addition to providing the PDF of the plan itself, metadata captured for plans includes selection options for various types of entities, such as schools, hospitals or businesses. These multi-select options are intended to capture the essence of what recommendations are included in the plan, such as capacity limitations, layout changes, or physical distancing requirements. 
+     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whether or not the organization has a residential facility. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This information is only included if the organization type is a university or other residential facility.</t>
+    </r>
+  </si>
+  <si>
+    <t>Whether or not the author of the plan actually has authority over the elements enacted in the plan</t>
+  </si>
+  <si>
+    <t>A short description of the plan and its focus. This summary is chosen by a researcher or taken from the plan itself.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The number of phases included in the plan. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A phase indicates that specific requirements need to be met in order to move between phases.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If the plan does not have phases, this value is N/A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Selection of:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Face masks and/or
+Physical distancing</t>
+    </r>
+  </si>
+  <si>
+    <t>A link to the website from which the plan data were gathered.</t>
+  </si>
+  <si>
+    <t>The Hospital and public health category captures data from the plan that specifically relates to hospitals and/or general public health. There are nine possible options related specifically to the operation of hospitals and measures taken to support public health. If the plan includes guidance or requirements that falls under any of these nine measures, and the plan is issued by a government or hospital, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <t>Any additional guidelines and strategies included in the plan that apply more broadly. There are nine options that are typically implemented in a University setting but could also apply to private companies or other organizations. If the plan includes any guidance or requirements that falls under any of these nine measures, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <t>The ountry where the organization or agency resides that issued the plan.</t>
+  </si>
+  <si>
+    <t>The Essential business category captures data from the plan that specifically relates to essential businesses. There are seven possible health and safety measures available as selections (taken from OHSA guidelines ). If the plan includes guidance or requirements that falls under any of these seven health and safety measures, and the plan is issued by a government or essential business, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <t>The Private sector category captures data from the plan that specifically relates to the private sector. There are seven possible health and safety measures available as selections (taken from OHSA guidelines ). If the plan includes guidance or requirements that falls under any of these seven health and safety measures, and the plan is issued by a government or private sector company, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <t>The School category captures data from the plan that specifically relates to schools (public or private). There are seven possible health and safety measures available as selections (taken from OHSA guidelines ). If the plan includes guidance or requirements that falls under any of these seven health and safety measures, and the plan is issued by a government or school, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <t>The Public facilities category captures data from the plan that specifically relates to public facilities. There are seven possible health and safety measures available as selections (taken from OHSA guidelines ). If the plan includes guidance or requirements that falls under any of these seven health and safety measures, the relevant measures will appear in this data field.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Hospital and public health support </t>
+    </r>
+  </si>
+  <si>
+    <t>Plan elements include requirements for testing capacity, including equipment, supplies, reagents, and staffing, meets the demand for testing.</t>
+  </si>
+  <si>
+    <t>Guidance/recommendations on when and how to require personal protection gear.</t>
+  </si>
+  <si>
+    <t>Ability to quickly set up safe and efficient screening and testing sites for symptomatic individuals.</t>
+  </si>
+  <si>
+    <t>Treatment of COVID- 19 patients according to national standards and crisis standards of care.</t>
+  </si>
+  <si>
+    <t>A strategy to implement PCR, antigen, and serological surveys in the population or in wastewater.</t>
+  </si>
+  <si>
+    <t>Modifications made to on-campus housing and restrictions on off-campus housing.</t>
+  </si>
+  <si>
+    <t>Program to implement contact tracing.</t>
+  </si>
+  <si>
+    <t>Specific guidance on when and who requires quarantine/isolation.</t>
+  </si>
+  <si>
+    <t>Specific programs or strategies targeted to athletics, clubs, or other sub-populations on campus.</t>
+  </si>
+  <si>
+    <t>A change to either the academic calendar or class schedules.</t>
+  </si>
+  <si>
+    <t>A requirement for influenza vaccination.</t>
+  </si>
+  <si>
+    <t>Strategy/guidance to implement temperature checks and/or symptom monitoring apps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan elements include the ability to test patients showing COVID-like symptoms. </t>
+  </si>
+  <si>
+    <t>The plan includes a program to set up sentinel surveillance sites  to screen asymptomatic cases for COVID-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitals have a plan and the ability to surge intensive care unit (ICU) capacity. </t>
+  </si>
+  <si>
+    <t>The plan has guidance on maintaining regular housekeeping practices, including routine cleaning and disinfecting of surfaces, equipment, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures such as increasing ventilation rates in the work environment, installing physical barriers, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance and recommendations for reductions or restrictions on the overall capacity of a space (indoor or outdoor). </t>
+  </si>
+  <si>
+    <t>Requirements for temperature and/or health checks at entry points.</t>
+  </si>
+  <si>
+    <t>Ability to quickly and independently supply sufficient personal protective equipment and critical medical equipment.</t>
+  </si>
+  <si>
+    <t>Modifications made to transportation systems (either public or on-campus transportation) to reduce overall capacity and/or allow for social distancing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="46">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2433,6 +3379,74 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2478,7 +3492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2755,12 +3769,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2772,293 +3818,463 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{0144A55C-BABD-2542-B150-74ABF39C8CE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00A3A2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3124,15 +4340,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1625600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3155,7 +4371,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="25400" y="177800"/>
           <a:ext cx="4800600" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3170,25 +4386,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>178625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1822900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4623</xdr:rowOff>
+      <xdr:colOff>2033446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>62157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BAB173-ED9C-2447-95EA-049A2A107010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EC4E16-1F77-BD49-8249-4D734280CF72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,8 +4420,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4590363" cy="762832"/>
+          <a:off x="0" y="178625"/>
+          <a:ext cx="4802046" cy="1026532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2300087</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62EA956-3DC2-7948-96D3-D9B61074F2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="139700"/>
+          <a:ext cx="4801987" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1968500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD380E93-774E-2842-B8B9-A76DBA0737A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="152400"/>
+          <a:ext cx="4800600" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3543,14 +4857,14 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="132.1640625" customWidth="1"/>
+    <col min="2" max="2" width="134.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="77" customHeight="1">
@@ -3559,556 +4873,556 @@
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="46"/>
+      <c r="B2" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="B5" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="71"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="71"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="71"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="71"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="71"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="71"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="71"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="71"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="71"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="71"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="B48" s="71"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="71"/>
+      <c r="B49" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4125,10 +5439,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4142,777 +5456,844 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" ht="43" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+    </row>
+    <row r="8" spans="1:6" s="13" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+    </row>
+    <row r="9" spans="1:6" s="13" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="117" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="37">
+        <v>5</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="64" customHeight="1">
+      <c r="A14" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="117" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="60" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="60" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="D14" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="34">
+      <c r="A15" s="115"/>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A16" s="115"/>
+      <c r="B16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A17" s="115"/>
+      <c r="B17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="17">
+      <c r="A18" s="115"/>
+      <c r="B18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A19" s="115"/>
+      <c r="B19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="17">
+      <c r="A20" s="116"/>
+      <c r="B20" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="68">
+      <c r="A21" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="68">
+      <c r="A22" s="118"/>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A23" s="118"/>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A24" s="118"/>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="51">
+      <c r="A25" s="118"/>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="153">
+      <c r="A26" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="102">
+      <c r="A27" s="120"/>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="121"/>
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="34">
+      <c r="A29" s="121"/>
+      <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="34">
+      <c r="A30" s="121"/>
+      <c r="B30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="42">
+        <v>149</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="34">
+      <c r="A31" s="121"/>
+      <c r="B31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="38">
-        <v>5</v>
-      </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="64" customHeight="1">
-      <c r="A13" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="34">
-      <c r="A14" s="74"/>
-      <c r="B14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A15" s="74"/>
-      <c r="B15" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="64" t="s">
+      <c r="D31" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="34">
+      <c r="A32" s="121"/>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="17">
+      <c r="A33" s="121"/>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="121"/>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="68">
+      <c r="A35" s="121"/>
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="51">
+      <c r="A36" s="121"/>
+      <c r="B36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="34">
+      <c r="A37" s="121"/>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="85">
+      <c r="A38" s="121"/>
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="51">
+      <c r="A39" s="121"/>
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="51">
+      <c r="A40" s="121"/>
+      <c r="B40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="121"/>
+      <c r="B41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="121"/>
+      <c r="B42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="170">
+      <c r="A43" s="121"/>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="17">
+      <c r="A44" s="121"/>
+      <c r="B44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="34">
+      <c r="A45" s="121"/>
+      <c r="B45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="17">
+      <c r="A46" s="121"/>
+      <c r="B46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="102">
+      <c r="A47" s="121"/>
+      <c r="B47" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="68">
+      <c r="A48" s="121"/>
+      <c r="B48" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="102">
+      <c r="A49" s="121"/>
+      <c r="B49" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>481</v>
+      </c>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+    </row>
+    <row r="50" spans="1:6" ht="34">
+      <c r="A50" s="87"/>
+      <c r="B50" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+    </row>
+    <row r="51" spans="1:6" ht="68">
+      <c r="A51" s="110" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A16" s="74"/>
-      <c r="B16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="B51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="1:6" ht="34">
+      <c r="A52" s="111"/>
+      <c r="B52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="1:6" ht="34">
+      <c r="A53" s="111"/>
+      <c r="B53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="1:6" ht="34">
+      <c r="A54" s="111"/>
+      <c r="B54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="1:6" ht="17">
+      <c r="A55" s="111"/>
+      <c r="B55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="1:6" ht="153">
+      <c r="A56" s="111"/>
+      <c r="B56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" ht="85">
+      <c r="A57" s="111"/>
+      <c r="B57" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="41"/>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="1:6" ht="51">
+      <c r="A58" s="111"/>
+      <c r="B58" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="17">
-      <c r="A17" s="74"/>
-      <c r="B17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A18" s="74"/>
-      <c r="B18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="51" t="s">
+      <c r="C58" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" spans="1:6" ht="51">
+      <c r="A59" s="111"/>
+      <c r="B59" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="17">
-      <c r="A19" s="75"/>
-      <c r="B19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="68">
-      <c r="A20" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="68">
-      <c r="A21" s="77"/>
-      <c r="B21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A22" s="77"/>
-      <c r="B22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A23" s="77"/>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="51">
-      <c r="A24" s="77"/>
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="102">
-      <c r="A25" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="79"/>
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="34">
-      <c r="A27" s="79"/>
-      <c r="B27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="34">
-      <c r="A28" s="79"/>
-      <c r="B28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="43">
-        <v>149</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="34">
-      <c r="A29" s="79"/>
-      <c r="B29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="34">
-      <c r="A30" s="79"/>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="79"/>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="79"/>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="68">
-      <c r="A33" s="79"/>
-      <c r="B33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="51">
-      <c r="A34" s="79"/>
-      <c r="B34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="34">
-      <c r="A35" s="79"/>
-      <c r="B35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="85">
-      <c r="A36" s="79"/>
-      <c r="B36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="102">
-      <c r="A37" s="80"/>
-      <c r="B37" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="68">
-      <c r="A38" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="82"/>
-      <c r="B39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="82"/>
-      <c r="B40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6" ht="34">
-      <c r="A41" s="82"/>
-      <c r="B41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="82"/>
-      <c r="B42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" ht="153">
-      <c r="A43" s="82"/>
-      <c r="B43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:6" ht="85">
-      <c r="A44" s="82"/>
-      <c r="B44" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" ht="51">
-      <c r="A45" s="82"/>
-      <c r="B45" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" ht="51">
-      <c r="A46" s="82"/>
-      <c r="B46" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" ht="51">
-      <c r="A47" s="82"/>
-      <c r="B47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" ht="51">
-      <c r="A48" s="82"/>
-      <c r="B48" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="1:6" ht="17">
-      <c r="A49" s="82"/>
-      <c r="B49" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:6" ht="17">
-      <c r="A50" s="82"/>
-      <c r="B50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="47"/>
-    </row>
-    <row r="51" spans="1:6" ht="170">
-      <c r="A51" s="82"/>
-      <c r="B51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="52" t="s">
+      <c r="C59" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="47"/>
-    </row>
-    <row r="52" spans="1:6" ht="17">
-      <c r="A52" s="82"/>
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="47"/>
-    </row>
-    <row r="53" spans="1:6" ht="34">
-      <c r="A53" s="82"/>
-      <c r="B53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="47"/>
-    </row>
-    <row r="54" spans="1:6" ht="17">
-      <c r="A54" s="82"/>
-      <c r="B54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" spans="1:6" ht="16">
-      <c r="F55" s="11"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="1:6" ht="16">
+      <c r="F60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A37"/>
-    <mergeCell ref="A38:A54"/>
     <mergeCell ref="A1:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A8:F10"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4925,10 +6306,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4942,1272 +6323,2288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="81" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="77" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="77" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+    </row>
+    <row r="15" spans="1:4" ht="64">
+      <c r="A15" s="126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="64">
+      <c r="A16" s="126"/>
+      <c r="B16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32">
+      <c r="A17" s="126"/>
+      <c r="B17" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="48">
+      <c r="A18" s="126"/>
+      <c r="B18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="48">
+      <c r="A19" s="126"/>
+      <c r="B19" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" ht="32">
+      <c r="A20" s="126"/>
+      <c r="B20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" ht="48">
+      <c r="A21" s="126"/>
+      <c r="B21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32">
+      <c r="A22" s="126"/>
+      <c r="B22" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" ht="32">
+      <c r="A23" s="126"/>
+      <c r="B23" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" ht="48">
+      <c r="A24" s="126"/>
+      <c r="B24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" ht="48">
+      <c r="A25" s="126"/>
+      <c r="B25" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="32">
+      <c r="A26" s="126"/>
+      <c r="B26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" ht="32">
+      <c r="A27" s="126"/>
+      <c r="B27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" ht="48">
+      <c r="A28" s="126"/>
+      <c r="B28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="64">
+      <c r="A29" s="126"/>
+      <c r="B29" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" ht="32">
+      <c r="A30" s="126"/>
+      <c r="B30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" ht="48">
+      <c r="A31" s="126"/>
+      <c r="B31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="32" customHeight="1">
+      <c r="A32" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" ht="32">
+      <c r="A33" s="129"/>
+      <c r="B33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:4" ht="32" customHeight="1">
+      <c r="A34" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="32" customHeight="1">
+      <c r="A35" s="126"/>
+      <c r="B35" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" ht="32" customHeight="1">
+      <c r="A36" s="126"/>
+      <c r="B36" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="32" customHeight="1">
+      <c r="A37" s="126"/>
+      <c r="B37" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" ht="32">
+      <c r="A38" s="126"/>
+      <c r="B38" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" ht="32" customHeight="1">
+      <c r="A39" s="126"/>
+      <c r="B39" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" ht="32" customHeight="1">
+      <c r="A40" s="126"/>
+      <c r="B40" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" ht="32">
+      <c r="A41" s="126"/>
+      <c r="B41" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="32" customHeight="1">
+      <c r="A42" s="126"/>
+      <c r="B42" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" ht="32">
+      <c r="A43" s="126"/>
+      <c r="B43" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="32">
+      <c r="A44" s="126"/>
+      <c r="B44" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" ht="48">
+      <c r="A45" s="126"/>
+      <c r="B45" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" ht="48">
+      <c r="A46" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" ht="48">
+      <c r="A47" s="130"/>
+      <c r="B47" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:4" ht="32">
+      <c r="A48" s="130"/>
+      <c r="B48" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="33"/>
+    </row>
+    <row r="49" spans="1:4" ht="16">
+      <c r="A49" s="130"/>
+      <c r="B49" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="48">
+      <c r="A50" s="130"/>
+      <c r="B50" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="16">
+      <c r="A51" s="130"/>
+      <c r="B51" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="32">
+      <c r="A52" s="130"/>
+      <c r="B52" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="33"/>
+    </row>
+    <row r="53" spans="1:4" ht="16">
+      <c r="A53" s="130"/>
+      <c r="B53" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" ht="16">
+      <c r="A54" s="130"/>
+      <c r="B54" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4" ht="16">
+      <c r="A55" s="130"/>
+      <c r="B55" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="33"/>
+    </row>
+    <row r="56" spans="1:4" ht="16">
+      <c r="A56" s="130"/>
+      <c r="B56" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" spans="1:4" ht="48">
+      <c r="A57" s="130"/>
+      <c r="B57" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32">
+      <c r="A58" s="130"/>
+      <c r="B58" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" spans="1:4" ht="32">
+      <c r="A59" s="130"/>
+      <c r="B59" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D59" s="33"/>
+    </row>
+    <row r="60" spans="1:4" ht="32">
+      <c r="A60" s="130"/>
+      <c r="B60" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="33"/>
+    </row>
+    <row r="61" spans="1:4" ht="16">
+      <c r="A61" s="130"/>
+      <c r="B61" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" spans="1:4" ht="16">
+      <c r="A62" s="130"/>
+      <c r="B62" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:4" ht="16">
+      <c r="A63" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>489</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>490</v>
+      </c>
+      <c r="D63" s="93"/>
+    </row>
+    <row r="64" spans="1:4" ht="32">
+      <c r="A64" s="143"/>
+      <c r="B64" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="96" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" s="93"/>
+    </row>
+    <row r="65" spans="1:4" ht="32">
+      <c r="A65" s="143"/>
+      <c r="B65" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="93"/>
+    </row>
+    <row r="66" spans="1:4" ht="32">
+      <c r="A66" s="128"/>
+      <c r="B66" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="D66" s="32"/>
+    </row>
+    <row r="67" spans="1:4" ht="32">
+      <c r="A67" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="33"/>
+    </row>
+    <row r="68" spans="1:4" ht="32">
+      <c r="A68" s="129"/>
+      <c r="B68" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="33"/>
+    </row>
+    <row r="69" spans="1:4" ht="32">
+      <c r="A69" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" s="32"/>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70" s="128"/>
+      <c r="B70" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="32"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="A71" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="133"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="A72" s="134"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="136"/>
+    </row>
+    <row r="73" spans="1:4" ht="16" customHeight="1">
+      <c r="A73" s="126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="1:4" ht="16" customHeight="1">
+      <c r="A74" s="126"/>
+      <c r="B74" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" customHeight="1">
+      <c r="A75" s="126"/>
+      <c r="B75" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="16" customHeight="1">
+      <c r="A76" s="126"/>
+      <c r="B76" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" ht="16" customHeight="1">
+      <c r="A77" s="126"/>
+      <c r="B77" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" ht="16" customHeight="1">
+      <c r="A78" s="126"/>
+      <c r="B78" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" customHeight="1">
+      <c r="A79" s="126"/>
+      <c r="B79" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="32"/>
+    </row>
+    <row r="80" spans="1:4" ht="16" customHeight="1">
+      <c r="A80" s="126"/>
+      <c r="B80" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="1:4" ht="32">
+      <c r="A81" s="126"/>
+      <c r="B81" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4" ht="32">
+      <c r="A82" s="130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="33"/>
+    </row>
+    <row r="83" spans="1:4" ht="32">
+      <c r="A83" s="130"/>
+      <c r="B83" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:4" ht="32">
+      <c r="A84" s="130"/>
+      <c r="B84" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" s="33"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="138"/>
+      <c r="C85" s="138"/>
+      <c r="D85" s="139"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1">
+      <c r="A86" s="140"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="142"/>
+    </row>
+    <row r="87" spans="1:4" ht="32">
+      <c r="A87" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="32"/>
+    </row>
+    <row r="88" spans="1:4" ht="64">
+      <c r="A88" s="126"/>
+      <c r="B88" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="32"/>
+    </row>
+    <row r="89" spans="1:4" ht="16">
+      <c r="A89" s="126"/>
+      <c r="B89" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" s="32"/>
+    </row>
+    <row r="90" spans="1:4" ht="32">
+      <c r="A90" s="126"/>
+      <c r="B90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="32"/>
+    </row>
+    <row r="91" spans="1:4" ht="32">
+      <c r="A91" s="126"/>
+      <c r="B91" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D91" s="32"/>
+    </row>
+    <row r="92" spans="1:4" ht="48">
+      <c r="A92" s="126"/>
+      <c r="B92" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="32"/>
+    </row>
+    <row r="93" spans="1:4" ht="48">
+      <c r="A93" s="126"/>
+      <c r="B93" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" s="32"/>
+    </row>
+    <row r="94" spans="1:4" ht="16">
+      <c r="A94" s="126"/>
+      <c r="B94" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="32"/>
+    </row>
+    <row r="95" spans="1:4" ht="16">
+      <c r="A95" s="126"/>
+      <c r="B95" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="32"/>
+    </row>
+    <row r="96" spans="1:4" ht="32">
+      <c r="A96" s="127"/>
+      <c r="B96" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="32"/>
+    </row>
+    <row r="97" spans="1:4" ht="32" customHeight="1">
+      <c r="A97" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="1:4" ht="32">
+      <c r="A98" s="122"/>
+      <c r="B98" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" s="33"/>
+    </row>
+    <row r="99" spans="1:4" ht="16">
+      <c r="A99" s="122"/>
+      <c r="B99" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" s="33"/>
+    </row>
+    <row r="100" spans="1:4" ht="48">
+      <c r="A100" s="122"/>
+      <c r="B100" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" s="33"/>
+    </row>
+    <row r="101" spans="1:4" ht="48">
+      <c r="A101" s="122"/>
+      <c r="B101" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="33"/>
+    </row>
+    <row r="102" spans="1:4" ht="16">
+      <c r="A102" s="122"/>
+      <c r="B102" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="33"/>
+    </row>
+    <row r="103" spans="1:4" ht="16">
+      <c r="A103" s="122"/>
+      <c r="B103" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-    </row>
-    <row r="15" spans="1:4" ht="64">
-      <c r="A15" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="64">
-      <c r="A16" s="101"/>
-      <c r="B16" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32">
-      <c r="A17" s="101"/>
-      <c r="B17" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" ht="48">
-      <c r="A18" s="101"/>
-      <c r="B18" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" ht="48">
-      <c r="A19" s="101"/>
-      <c r="B19" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" ht="32">
-      <c r="A20" s="101"/>
-      <c r="B20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="48">
-      <c r="A21" s="101"/>
-      <c r="B21" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="32">
-      <c r="A22" s="101"/>
-      <c r="B22" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" ht="32">
-      <c r="A23" s="101"/>
-      <c r="B23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="48">
-      <c r="A24" s="101"/>
-      <c r="B24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" ht="48">
-      <c r="A25" s="101"/>
-      <c r="B25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" ht="32">
-      <c r="A26" s="101"/>
-      <c r="B26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="32">
-      <c r="A27" s="101"/>
-      <c r="B27" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" ht="48">
-      <c r="A28" s="101"/>
-      <c r="B28" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="64">
-      <c r="A29" s="101"/>
-      <c r="B29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" ht="32">
-      <c r="A30" s="101"/>
-      <c r="B30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" ht="48">
-      <c r="A31" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4" ht="32">
-      <c r="A32" s="102"/>
-      <c r="B32" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="1:4" ht="48">
+      <c r="A104" s="122"/>
+      <c r="B104" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105" spans="1:4" ht="64">
+      <c r="A105" s="122"/>
+      <c r="B105" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:4" ht="32">
-      <c r="A33" s="102"/>
-      <c r="B33" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" ht="32" customHeight="1">
-      <c r="A34" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" ht="32" customHeight="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" ht="32" customHeight="1">
-      <c r="A36" s="101"/>
-      <c r="B36" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" ht="32" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" ht="32">
-      <c r="A38" s="101"/>
-      <c r="B38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" ht="32" customHeight="1">
-      <c r="A39" s="101"/>
-      <c r="B39" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" ht="32" customHeight="1">
-      <c r="A40" s="101"/>
-      <c r="B40" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4" ht="32">
-      <c r="A41" s="101"/>
-      <c r="B41" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" ht="32" customHeight="1">
-      <c r="A42" s="101"/>
-      <c r="B42" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" ht="32">
-      <c r="A43" s="101"/>
-      <c r="B43" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" ht="48">
-      <c r="A44" s="101"/>
-      <c r="B44" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4" ht="48">
-      <c r="A45" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" ht="48">
-      <c r="A46" s="100"/>
-      <c r="B46" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" ht="32">
-      <c r="A47" s="100"/>
-      <c r="B47" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:4" ht="16">
-      <c r="A48" s="100"/>
-      <c r="B48" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" ht="48">
-      <c r="A49" s="100"/>
-      <c r="B49" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="16">
-      <c r="A50" s="100"/>
-      <c r="B50" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="34"/>
-    </row>
-    <row r="51" spans="1:4" ht="32">
-      <c r="A51" s="100"/>
-      <c r="B51" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="34"/>
-    </row>
-    <row r="52" spans="1:4" ht="16">
-      <c r="A52" s="100"/>
-      <c r="B52" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="34"/>
-    </row>
-    <row r="53" spans="1:4" ht="16">
-      <c r="A53" s="100"/>
-      <c r="B53" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:4" ht="16">
-      <c r="A54" s="100"/>
-      <c r="B54" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D54" s="34"/>
-    </row>
-    <row r="55" spans="1:4" ht="16">
-      <c r="A55" s="100"/>
-      <c r="B55" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="34"/>
-    </row>
-    <row r="56" spans="1:4" ht="48">
-      <c r="A56" s="100"/>
-      <c r="B56" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="32">
-      <c r="A57" s="100"/>
-      <c r="B57" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" s="34"/>
-    </row>
-    <row r="58" spans="1:4" ht="32">
-      <c r="A58" s="100"/>
-      <c r="B58" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="D58" s="34"/>
-    </row>
-    <row r="59" spans="1:4" ht="32">
-      <c r="A59" s="100"/>
-      <c r="B59" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="D59" s="34"/>
-    </row>
-    <row r="60" spans="1:4" ht="32">
-      <c r="A60" s="100"/>
-      <c r="B60" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="D60" s="34"/>
-    </row>
-    <row r="61" spans="1:4" ht="16">
-      <c r="A61" s="100"/>
-      <c r="B61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="D61" s="34"/>
-    </row>
-    <row r="62" spans="1:4" ht="16">
-      <c r="A62" s="100"/>
-      <c r="B62" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D62" s="34"/>
-    </row>
-    <row r="63" spans="1:4" ht="32">
-      <c r="A63" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:4" ht="32">
-      <c r="A64" s="99"/>
-      <c r="B64" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4" ht="32">
-      <c r="A65" s="99"/>
-      <c r="B65" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="1:4" ht="32">
-      <c r="A66" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D66" s="34"/>
-    </row>
-    <row r="67" spans="1:4" ht="32">
-      <c r="A67" s="102"/>
-      <c r="B67" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D67" s="34"/>
-    </row>
-    <row r="68" spans="1:4" ht="32">
-      <c r="A68" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:4" ht="16">
-      <c r="A69" s="99"/>
-      <c r="B69" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="33"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="87"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="88"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="A71" s="89"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="91"/>
-    </row>
-    <row r="72" spans="1:4" ht="16" customHeight="1">
-      <c r="A72" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:4" ht="16" customHeight="1">
-      <c r="A73" s="101"/>
-      <c r="B73" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" spans="1:4" ht="16" customHeight="1">
-      <c r="A74" s="101"/>
-      <c r="B74" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:4" ht="16" customHeight="1">
-      <c r="A75" s="101"/>
-      <c r="B75" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" spans="1:4" ht="16" customHeight="1">
-      <c r="A76" s="101"/>
-      <c r="B76" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="33"/>
-    </row>
-    <row r="77" spans="1:4" ht="16" customHeight="1">
-      <c r="A77" s="101"/>
-      <c r="B77" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D77" s="33"/>
-    </row>
-    <row r="78" spans="1:4" ht="16" customHeight="1">
-      <c r="A78" s="101"/>
-      <c r="B78" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="33"/>
-    </row>
-    <row r="79" spans="1:4" ht="16" customHeight="1">
-      <c r="A79" s="101"/>
-      <c r="B79" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="D79" s="33"/>
-    </row>
-    <row r="80" spans="1:4" ht="32">
-      <c r="A80" s="101"/>
-      <c r="B80" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" s="33"/>
-    </row>
-    <row r="81" spans="1:4" ht="32">
-      <c r="A81" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D81" s="34"/>
-    </row>
-    <row r="82" spans="1:4" ht="32">
-      <c r="A82" s="100"/>
-      <c r="B82" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="34"/>
-    </row>
-    <row r="83" spans="1:4" ht="32">
-      <c r="A83" s="100"/>
-      <c r="B83" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" s="34"/>
-    </row>
-    <row r="84" spans="1:4" ht="32">
-      <c r="A84" s="100"/>
-      <c r="B84" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="D84" s="34"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="A85" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="94"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="A86" s="95"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="97"/>
-    </row>
-    <row r="87" spans="1:4" ht="32">
-      <c r="A87" s="101" t="s">
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="1:4" ht="16">
+      <c r="A106" s="122"/>
+      <c r="B106" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="33"/>
+    </row>
+    <row r="107" spans="1:4" ht="32">
+      <c r="A107" s="122"/>
+      <c r="B107" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="33"/>
+    </row>
+    <row r="108" spans="1:4" ht="16">
+      <c r="A108" s="122"/>
+      <c r="B108" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="33"/>
+    </row>
+    <row r="109" spans="1:4" ht="16">
+      <c r="A109" s="122"/>
+      <c r="B109" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="33"/>
+    </row>
+    <row r="110" spans="1:4" ht="16">
+      <c r="A110" s="122"/>
+      <c r="B110" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D110" s="33"/>
+    </row>
+    <row r="111" spans="1:4" ht="32">
+      <c r="A111" s="122"/>
+      <c r="B111" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="33"/>
+    </row>
+    <row r="112" spans="1:4" ht="32">
+      <c r="A112" s="122"/>
+      <c r="B112" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="33"/>
+    </row>
+    <row r="113" spans="1:4" ht="16">
+      <c r="A113" s="122"/>
+      <c r="B113" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="33"/>
+    </row>
+    <row r="114" spans="1:4" ht="32">
+      <c r="A114" s="122"/>
+      <c r="B114" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="33"/>
+    </row>
+    <row r="115" spans="1:4" ht="32">
+      <c r="A115" s="122"/>
+      <c r="B115" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115" s="33"/>
+    </row>
+    <row r="116" spans="1:4" ht="32">
+      <c r="A116" s="122"/>
+      <c r="B116" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116" s="33"/>
+    </row>
+    <row r="117" spans="1:4" ht="16">
+      <c r="A117" s="122"/>
+      <c r="B117" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" s="33"/>
+    </row>
+    <row r="118" spans="1:4" ht="48">
+      <c r="A118" s="122"/>
+      <c r="B118" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" s="33"/>
+    </row>
+    <row r="119" spans="1:4" ht="32">
+      <c r="A119" s="122"/>
+      <c r="B119" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="33"/>
+    </row>
+    <row r="120" spans="1:4" ht="32">
+      <c r="A120" s="122"/>
+      <c r="B120" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="33"/>
+    </row>
+    <row r="121" spans="1:4" ht="32">
+      <c r="A121" s="122"/>
+      <c r="B121" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D121" s="33"/>
+    </row>
+    <row r="122" spans="1:4" ht="16">
+      <c r="A122" s="122"/>
+      <c r="B122" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="33"/>
+    </row>
+    <row r="123" spans="1:4" ht="16">
+      <c r="A123" s="122"/>
+      <c r="B123" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D123" s="33"/>
+    </row>
+    <row r="124" spans="1:4" ht="16">
+      <c r="A124" s="122"/>
+      <c r="B124" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="33"/>
+    </row>
+    <row r="125" spans="1:4" ht="32">
+      <c r="A125" s="122"/>
+      <c r="B125" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D125" s="33"/>
+    </row>
+    <row r="126" spans="1:4" ht="48">
+      <c r="A126" s="122"/>
+      <c r="B126" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D87" s="33"/>
-    </row>
-    <row r="88" spans="1:4" ht="64">
-      <c r="A88" s="101"/>
-      <c r="B88" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4" ht="16">
-      <c r="A89" s="101"/>
-      <c r="B89" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D89" s="33"/>
-    </row>
-    <row r="90" spans="1:4" ht="32">
-      <c r="A90" s="101"/>
-      <c r="B90" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="33"/>
-    </row>
-    <row r="91" spans="1:4" ht="32">
-      <c r="A91" s="101"/>
-      <c r="B91" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="D91" s="33"/>
-    </row>
-    <row r="92" spans="1:4" ht="48">
-      <c r="A92" s="101"/>
-      <c r="B92" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="33"/>
-    </row>
-    <row r="93" spans="1:4" ht="48">
-      <c r="A93" s="101"/>
-      <c r="B93" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D93" s="33"/>
-    </row>
-    <row r="94" spans="1:4" ht="16">
-      <c r="A94" s="101"/>
-      <c r="B94" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="33"/>
-    </row>
-    <row r="95" spans="1:4" ht="16">
-      <c r="A95" s="101"/>
-      <c r="B95" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="33"/>
-    </row>
-    <row r="96" spans="1:4" ht="32">
-      <c r="A96" s="101"/>
-      <c r="B96" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="D96" s="33"/>
-    </row>
-    <row r="97" spans="1:4" ht="32">
-      <c r="A97" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D97" s="34"/>
-    </row>
-    <row r="98" spans="1:4" ht="32">
-      <c r="A98" s="100"/>
-      <c r="B98" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D98" s="34"/>
-    </row>
-    <row r="99" spans="1:4" ht="16">
-      <c r="A99" s="100"/>
-      <c r="B99" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="D99" s="34"/>
-    </row>
-    <row r="100" spans="1:4" ht="48">
-      <c r="A100" s="100"/>
-      <c r="B100" s="34" t="s">
+      <c r="C126" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C100" s="61" t="s">
+      <c r="D126" s="33"/>
+    </row>
+    <row r="127" spans="1:4" ht="16">
+      <c r="A127" s="122"/>
+      <c r="B127" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="D100" s="34"/>
-    </row>
-    <row r="101" spans="1:4" ht="48">
-      <c r="A101" s="100"/>
-      <c r="B101" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="34"/>
-    </row>
-    <row r="102" spans="1:4" ht="16">
-      <c r="A102" s="100"/>
-      <c r="B102" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="34"/>
-    </row>
-    <row r="103" spans="1:4" ht="16">
-      <c r="A103" s="100"/>
-      <c r="B103" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="D103" s="34"/>
-    </row>
-    <row r="104" spans="1:4" ht="48">
-      <c r="A104" s="100"/>
-      <c r="B104" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="34"/>
-    </row>
-    <row r="105" spans="1:4" ht="64">
-      <c r="A105" s="100"/>
-      <c r="B105" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="D105" s="34"/>
-    </row>
-    <row r="106" spans="1:4" ht="16">
-      <c r="A106" s="100"/>
-      <c r="B106" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="D106" s="34"/>
-    </row>
-    <row r="107" spans="1:4" ht="32">
-      <c r="A107" s="100"/>
-      <c r="B107" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="D107" s="34"/>
-    </row>
-    <row r="108" spans="1:4" ht="32">
-      <c r="A108" s="100"/>
-      <c r="B108" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D108" s="34"/>
-    </row>
-    <row r="109" spans="1:4" ht="32">
-      <c r="A109" s="100"/>
-      <c r="B109" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D109" s="34"/>
-    </row>
-    <row r="110" spans="1:4" ht="16">
-      <c r="A110" s="100"/>
-      <c r="B110" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D110" s="34"/>
-    </row>
-    <row r="111" spans="1:4" ht="16">
-      <c r="A111" s="100"/>
-      <c r="B111" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="34"/>
-    </row>
-    <row r="112" spans="1:4" ht="16">
-      <c r="A112" s="100"/>
-      <c r="B112" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D112" s="34"/>
-    </row>
-    <row r="113" spans="1:4" ht="32">
-      <c r="A113" s="100"/>
-      <c r="B113" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="34"/>
-    </row>
-    <row r="114" spans="1:4" ht="32">
-      <c r="A114" s="100"/>
-      <c r="B114" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" s="34"/>
-    </row>
-    <row r="115" spans="1:4" ht="32">
-      <c r="A115" s="100"/>
-      <c r="B115" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" s="34"/>
-    </row>
-    <row r="116" spans="1:4" ht="16">
-      <c r="A116" s="100"/>
-      <c r="B116" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D116" s="34"/>
-    </row>
-    <row r="117" spans="1:4" ht="48">
-      <c r="A117" s="100"/>
-      <c r="B117" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D117" s="34"/>
-    </row>
-    <row r="118" spans="1:4" ht="32">
-      <c r="A118" s="100"/>
-      <c r="B118" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D118" s="34"/>
-    </row>
-    <row r="119" spans="1:4" ht="32">
-      <c r="A119" s="100"/>
-      <c r="B119" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D119" s="34"/>
-    </row>
-    <row r="120" spans="1:4" ht="32">
-      <c r="A120" s="100"/>
-      <c r="B120" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D120" s="34"/>
-    </row>
-    <row r="121" spans="1:4" ht="16">
-      <c r="A121" s="100"/>
-      <c r="B121" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D121" s="34"/>
-    </row>
-    <row r="122" spans="1:4" ht="16">
-      <c r="A122" s="100"/>
-      <c r="B122" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="D122" s="34"/>
-    </row>
-    <row r="123" spans="1:4" ht="16">
-      <c r="A123" s="100"/>
-      <c r="B123" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123" s="34"/>
-    </row>
-    <row r="124" spans="1:4" ht="32">
-      <c r="A124" s="100"/>
-      <c r="B124" s="34" t="s">
+      <c r="D127" s="33"/>
+    </row>
+    <row r="128" spans="1:4" ht="16">
+      <c r="A128" s="122"/>
+      <c r="B128" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="D124" s="34"/>
-    </row>
-    <row r="125" spans="1:4" ht="48">
-      <c r="A125" s="100"/>
-      <c r="B125" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="34"/>
-    </row>
-    <row r="126" spans="1:4" ht="16">
-      <c r="A126" s="100"/>
-      <c r="B126" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="D126" s="34"/>
-    </row>
-    <row r="127" spans="1:4" ht="16">
-      <c r="A127" s="100"/>
-      <c r="B127" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D127" s="34"/>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="D128" s="33"/>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1">
       <c r="A129" s="14"/>
+    </row>
+    <row r="133" spans="1:3" ht="17">
+      <c r="C133" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A97:A128"/>
+    <mergeCell ref="A1:D7"/>
+    <mergeCell ref="A8:D10"/>
     <mergeCell ref="A87:A96"/>
-    <mergeCell ref="A97:A127"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A1:D6"/>
-    <mergeCell ref="A70:D71"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A71:D72"/>
     <mergeCell ref="A85:D86"/>
     <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A45:A62"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A15:A30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A46:A62"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A15:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED617AD-D54D-334F-A051-DD5DB8E8D0F8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1">
+      <c r="A1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="117" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="146" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="76">
+        <v>5</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="71"/>
+    </row>
+    <row r="14" spans="1:7" ht="64">
+      <c r="A14" s="146"/>
+      <c r="B14" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15" spans="1:7" ht="112">
+      <c r="A15" s="146"/>
+      <c r="B15" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:7" ht="64">
+      <c r="A16" s="146"/>
+      <c r="B16" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17" spans="1:7" ht="48">
+      <c r="A17" s="146"/>
+      <c r="B17" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="72"/>
+    </row>
+    <row r="18" spans="1:7" ht="32">
+      <c r="A18" s="146"/>
+      <c r="B18" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="1:7" ht="64">
+      <c r="A19" s="146"/>
+      <c r="B19" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" ht="80" customHeight="1">
+      <c r="A20" s="146"/>
+      <c r="B20" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1">
+      <c r="A21" s="147" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7" ht="64">
+      <c r="A22" s="148"/>
+      <c r="B22" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="1:7" ht="32">
+      <c r="A23" s="148"/>
+      <c r="B23" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" ht="32">
+      <c r="A24" s="148"/>
+      <c r="B24" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7" ht="64">
+      <c r="A25" s="148"/>
+      <c r="B25" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>505</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:7" ht="128">
+      <c r="A26" s="148"/>
+      <c r="B26" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27" spans="1:7" ht="128">
+      <c r="A27" s="148"/>
+      <c r="B27" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28" spans="1:7" ht="128">
+      <c r="A28" s="148"/>
+      <c r="B28" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="72"/>
+    </row>
+    <row r="29" spans="1:7" ht="112">
+      <c r="A29" s="148"/>
+      <c r="B29" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>514</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="72"/>
+    </row>
+    <row r="30" spans="1:7" ht="128">
+      <c r="A30" s="148"/>
+      <c r="B30" s="74" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" ht="112">
+      <c r="A31" s="148"/>
+      <c r="B31" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="79"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="1:7" ht="48">
+      <c r="A32" s="149"/>
+      <c r="B32" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="72"/>
+    </row>
+    <row r="33" spans="1:7" ht="32">
+      <c r="A33" s="144" t="s">
+        <v>432</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="72"/>
+    </row>
+    <row r="34" spans="1:7" ht="64">
+      <c r="A34" s="145"/>
+      <c r="B34" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="72"/>
+    </row>
+    <row r="35" spans="1:7" ht="48">
+      <c r="A35" s="145"/>
+      <c r="B35" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" ht="16">
+      <c r="A36" s="145"/>
+      <c r="B36" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="72"/>
+    </row>
+    <row r="37" spans="1:7" ht="32">
+      <c r="A37" s="145"/>
+      <c r="B37" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F7"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A8:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD27920-93D7-7C43-BF2B-A1F6E5606485}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1">
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="81" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="94" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="131" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="64" customHeight="1">
+      <c r="A15" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32">
+      <c r="A16" s="157"/>
+      <c r="B16" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" s="157"/>
+      <c r="B17" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32">
+      <c r="A18" s="157"/>
+      <c r="B18" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32">
+      <c r="A19" s="157"/>
+      <c r="B19" s="81" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32">
+      <c r="A20" s="157"/>
+      <c r="B20" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32">
+      <c r="A21" s="157"/>
+      <c r="B21" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="153" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+    </row>
+    <row r="24" spans="1:4" ht="32" customHeight="1">
+      <c r="A24" s="158" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" s="159"/>
+      <c r="B25" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="83"/>
+    </row>
+    <row r="26" spans="1:4" ht="32">
+      <c r="A26" s="159"/>
+      <c r="B26" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="D26" s="83"/>
+    </row>
+    <row r="27" spans="1:4" ht="32">
+      <c r="A27" s="159"/>
+      <c r="B27" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="83"/>
+    </row>
+    <row r="28" spans="1:4" ht="32">
+      <c r="A28" s="159"/>
+      <c r="B28" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" s="83"/>
+    </row>
+    <row r="29" spans="1:4" ht="16">
+      <c r="A29" s="159"/>
+      <c r="B29" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="83"/>
+    </row>
+    <row r="30" spans="1:4" ht="32">
+      <c r="A30" s="159"/>
+      <c r="B30" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" s="83"/>
+    </row>
+    <row r="31" spans="1:4" ht="16">
+      <c r="A31" s="159"/>
+      <c r="B31" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="83"/>
+    </row>
+    <row r="32" spans="1:4" ht="32">
+      <c r="A32" s="160"/>
+      <c r="B32" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="D32" s="83"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="153" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+    </row>
+    <row r="35" spans="1:4" ht="32">
+      <c r="A35" s="150" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="D35" s="84"/>
+    </row>
+    <row r="36" spans="1:4" ht="32">
+      <c r="A36" s="151"/>
+      <c r="B36" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>521</v>
+      </c>
+      <c r="D36" s="84"/>
+    </row>
+    <row r="37" spans="1:4" ht="16">
+      <c r="A37" s="151"/>
+      <c r="B37" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>522</v>
+      </c>
+      <c r="D37" s="84"/>
+    </row>
+    <row r="38" spans="1:4" ht="16">
+      <c r="A38" s="151"/>
+      <c r="B38" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>523</v>
+      </c>
+      <c r="D38" s="84"/>
+    </row>
+    <row r="39" spans="1:4" ht="32">
+      <c r="A39" s="151"/>
+      <c r="B39" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>527</v>
+      </c>
+      <c r="D39" s="84"/>
+    </row>
+    <row r="40" spans="1:4" ht="32">
+      <c r="A40" s="151"/>
+      <c r="B40" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>524</v>
+      </c>
+      <c r="D40" s="84"/>
+    </row>
+    <row r="41" spans="1:4" ht="32">
+      <c r="A41" s="151"/>
+      <c r="B41" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="D41" s="84"/>
+    </row>
+    <row r="42" spans="1:4" ht="16">
+      <c r="A42" s="151"/>
+      <c r="B42" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" s="84"/>
+    </row>
+    <row r="43" spans="1:4" ht="16">
+      <c r="A43" s="152"/>
+      <c r="B43" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="D43" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A1:D7"/>
+    <mergeCell ref="A8:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A24:A32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{33330829-A893-4145-9727-7CE805041F88}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{ABB3CCCB-FA7B-2A4A-8D54-13C222FFDD60}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{68119B93-2915-C441-B767-76AC5F46D06B}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{1598363D-2031-2E40-ADFA-D81F00F27A69}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{9D0C74E2-BE74-B24A-A34B-42D049ACD160}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{7ABB1933-C560-8A4E-A7B7-35A1F1CD6709}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{CD1ACCCC-2ED0-F040-91E2-0FBF38678383}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId8"/>
+</worksheet>
 </file>